--- a/profissionais_tecnologia.xlsx
+++ b/profissionais_tecnologia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="206">
   <si>
     <t>Nome</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Experiência</t>
   </si>
   <si>
+    <t>Senioridade</t>
+  </si>
+  <si>
     <t>Tecnologias</t>
   </si>
   <si>
@@ -55,10 +58,13 @@
     <t>Engenheiro DevOps</t>
   </si>
   <si>
-    <t>Especialista em automação de infraestrutura...</t>
+    <t>ta em automação de infraestrutura...</t>
   </si>
   <si>
     <t>6 anos em automação</t>
+  </si>
+  <si>
+    <t>Sênior</t>
   </si>
   <si>
     <t>AWS,Kubernetes,Terraform</t>
@@ -100,6 +106,9 @@
     <t>5 anos em segurança da informação</t>
   </si>
   <si>
+    <t>Pleno</t>
+  </si>
+  <si>
     <t>Pentest,SIEM,Firewalls,Ansible</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
     <t>6 anos com engenharia de dados</t>
   </si>
   <si>
+    <t>Especialista</t>
+  </si>
+  <si>
     <t>Spark,Hadoop,Python,Airflow,AWS Glue</t>
   </si>
   <si>
@@ -713,6 +725,9 @@
   </si>
   <si>
     <t>6 anos com metodologias ágeis</t>
+  </si>
+  <si>
+    <t>Sênio</t>
   </si>
   <si>
     <t>Scrum,Kanban,Jira,OKRs</t>
@@ -1010,12 +1025,13 @@
     <col customWidth="1" min="2" max="2" width="28.88"/>
     <col customWidth="1" min="3" max="3" width="58.0"/>
     <col customWidth="1" min="4" max="4" width="28.0"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="27.25"/>
-    <col customWidth="1" min="7" max="7" width="22.38"/>
-    <col customWidth="1" min="8" max="8" width="11.25"/>
-    <col customWidth="1" min="10" max="10" width="7.0"/>
-    <col customWidth="1" min="11" max="11" width="29.13"/>
+    <col customWidth="1" min="5" max="5" width="21.63"/>
+    <col customWidth="1" min="6" max="6" width="30.88"/>
+    <col customWidth="1" min="7" max="7" width="27.25"/>
+    <col customWidth="1" min="8" max="8" width="22.38"/>
+    <col customWidth="1" min="9" max="9" width="11.25"/>
+    <col customWidth="1" min="11" max="11" width="7.0"/>
+    <col customWidth="1" min="12" max="12" width="29.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1055,789 +1071,852 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
         <v>1.1999998888E10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
         <v>2.1988887777E10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2">
         <v>3.1988776655E10</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2">
         <v>4.7988776655E10</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2">
         <v>1.1988774433E10</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="2">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2">
         <v>2.199999E10</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="2">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2">
         <v>1.1988886666E10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2">
         <v>3.1999998887E10</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="2">
+        <v>99</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
         <v>6.1999997777E10</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="2">
+        <v>109</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="2">
         <v>4.1988884444E10</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="2">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="2">
         <v>7.1988887722E10</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="2">
+        <v>129</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="2">
         <v>3.1999991111E10</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="2">
+        <v>138</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="2">
         <v>3.1988882222E10</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>137</v>
+        <v>44</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="2">
+        <v>147</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="2">
         <v>2.1999994444E10</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="2">
+        <v>156</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="2">
         <v>1.1988884433E10</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>155</v>
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="2">
+        <v>165</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="2">
         <v>4.798888E10</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>164</v>
+        <v>54</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="2">
+        <v>174</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="2">
         <v>6.1999993333E10</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="2">
+        <v>183</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="2">
         <v>3.1988886666E10</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="2">
+        <v>192</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="2">
         <v>1.1999996666E10</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="2">
+        <v>202</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="2">
         <v>2.1988885555E10</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
-    <hyperlink r:id="rId12" ref="K13"/>
-    <hyperlink r:id="rId13" ref="K14"/>
-    <hyperlink r:id="rId14" ref="K15"/>
-    <hyperlink r:id="rId15" ref="K16"/>
-    <hyperlink r:id="rId16" ref="K17"/>
-    <hyperlink r:id="rId17" ref="K18"/>
-    <hyperlink r:id="rId18" ref="K19"/>
-    <hyperlink r:id="rId19" ref="K20"/>
-    <hyperlink r:id="rId20" ref="K21"/>
+    <hyperlink r:id="rId1" ref="L2"/>
+    <hyperlink r:id="rId2" ref="L3"/>
+    <hyperlink r:id="rId3" ref="L4"/>
+    <hyperlink r:id="rId4" ref="L5"/>
+    <hyperlink r:id="rId5" ref="L6"/>
+    <hyperlink r:id="rId6" ref="L7"/>
+    <hyperlink r:id="rId7" ref="L8"/>
+    <hyperlink r:id="rId8" ref="L9"/>
+    <hyperlink r:id="rId9" ref="L10"/>
+    <hyperlink r:id="rId10" ref="L11"/>
+    <hyperlink r:id="rId11" ref="L12"/>
+    <hyperlink r:id="rId12" ref="L13"/>
+    <hyperlink r:id="rId13" ref="L14"/>
+    <hyperlink r:id="rId14" ref="L15"/>
+    <hyperlink r:id="rId15" ref="L16"/>
+    <hyperlink r:id="rId16" ref="L17"/>
+    <hyperlink r:id="rId17" ref="L18"/>
+    <hyperlink r:id="rId18" ref="L19"/>
+    <hyperlink r:id="rId19" ref="L20"/>
+    <hyperlink r:id="rId20" ref="L21"/>
   </hyperlinks>
   <drawing r:id="rId21"/>
 </worksheet>

--- a/profissionais_tecnologia.xlsx
+++ b/profissionais_tecnologia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="209">
   <si>
     <t>Nome</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Salário</t>
+  </si>
+  <si>
+    <t>Disponível</t>
   </si>
   <si>
     <t>João Silva</t>
@@ -94,6 +97,9 @@
     <t>150,00 hr</t>
   </si>
   <si>
+    <t>Sim</t>
+  </si>
+  <si>
     <t>Maria Oliveira</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>R$ 9.500,00</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
   <si>
     <t>Carlos Andrade</t>
@@ -792,12 +801,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1074,825 +1086,888 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
         <v>1.1999998888E10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.1988887777E10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.1988776655E10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.7988776655E10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.1988774433E10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.199999E10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.1988886666E10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.1999998887E10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6.1999997777E10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.1988887777E10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4.1988884444E10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.1988887722E10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.1999991111E10</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.1988882222E10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.1999994444E10</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3.1988776655E10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.1988884433E10</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4.798888E10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.1999993333E10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.1988886666E10</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4.7988776655E10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.1988774433E10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1999996666E10</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.199999E10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1.1988886666E10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.1999998887E10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6.1999997777E10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.1988884444E10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="2">
-        <v>7.1988887722E10</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3.1999991111E10</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3.1988882222E10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.1999994444E10</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1.1988884433E10</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4.798888E10</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="2">
-        <v>6.1999993333E10</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3.1988886666E10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1.1999996666E10</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>195</v>
+      <c r="K20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I21" s="2">
+      <c r="F21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="3">
         <v>2.1988885555E10</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>205</v>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
